--- a/data/output/FV2304_FV2210/PRICAT/27003.xlsx
+++ b/data/output/FV2304_FV2210/PRICAT/27003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="214">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="214">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -792,6 +792,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U100" totalsRowShown="0">
+  <autoFilter ref="A1:U100"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,7 +1111,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5438,5 +5471,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/PRICAT/27003.xlsx
+++ b/data/output/FV2304_FV2210/PRICAT/27003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="310">
   <si>
     <t>#</t>
   </si>
@@ -5723,50 +5723,48 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K93" s="5" t="s">
+      <c r="K93" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M93" s="5" t="s">
+      <c r="L93" s="4"/>
+      <c r="M93" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O93" s="5" t="s">
+      <c r="O93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="V93" s="5" t="s">
+      <c r="V93" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5794,9 +5792,7 @@
         <v>189</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>36</v>
       </c>
@@ -5846,9 +5842,7 @@
         <v>165</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>36</v>
       </c>
@@ -5902,9 +5896,7 @@
       <c r="K96" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="L96" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>36</v>
       </c>
@@ -5958,9 +5950,7 @@
       <c r="K97" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>36</v>
       </c>
@@ -5987,44 +5977,42 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5" t="s">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -6050,9 +6038,7 @@
         <v>165</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>37</v>
       </c>
@@ -6098,9 +6084,7 @@
         <v>165</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>37</v>
       </c>

--- a/data/output/FV2304_FV2210/PRICAT/27003.xlsx
+++ b/data/output/FV2304_FV2210/PRICAT/27003.xlsx
@@ -1064,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1090,7 +1090,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1543,7 @@
         <v>192</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1875,7 +1881,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2205,7 +2211,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -2393,7 +2399,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -2579,7 +2585,7 @@
         <v>195</v>
       </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2769,7 +2775,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2957,7 +2963,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3537,7 +3543,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -3715,7 +3721,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4077,7 +4083,7 @@
         <v>198</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4323,7 +4329,7 @@
         <v>199</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4451,7 +4457,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4695,7 +4701,7 @@
         <v>202</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -4886,19 +4892,19 @@
       <c r="M72" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N72" s="9" t="s">
+      <c r="N72" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9" t="s">
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="V72" s="9" t="s">
+      <c r="V72" s="10" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4919,24 +4925,24 @@
       <c r="L73" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="M73" s="9" t="s">
+      <c r="M73" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N73" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O73" s="9" t="s">
+      <c r="O73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9" t="s">
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="V73" s="9"/>
+      <c r="V73" s="10"/>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
@@ -4955,28 +4961,28 @@
       <c r="L74" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="M74" s="9" t="s">
+      <c r="M74" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N74" s="9" t="s">
+      <c r="N74" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O74" s="9" t="s">
+      <c r="O74" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P74" s="9" t="s">
+      <c r="P74" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9" t="s">
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9" t="s">
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="V74" s="9"/>
+      <c r="V74" s="10"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -4998,19 +5004,19 @@
       <c r="M75" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="N75" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9" t="s">
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="V75" s="9"/>
+      <c r="V75" s="10"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5029,24 +5035,24 @@
       <c r="L76" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M76" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N76" s="9" t="s">
+      <c r="N76" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O76" s="9" t="s">
+      <c r="O76" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9" t="s">
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="V76" s="9"/>
+      <c r="V76" s="10"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5065,28 +5071,28 @@
       <c r="L77" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="M77" s="9" t="s">
+      <c r="M77" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="N77" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O77" s="9" t="s">
+      <c r="O77" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P77" s="9" t="s">
+      <c r="P77" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9" t="s">
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="U77" s="9" t="s">
+      <c r="U77" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="V77" s="9" t="s">
+      <c r="V77" s="10" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5107,28 +5113,28 @@
       <c r="L78" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="M78" s="9" t="s">
+      <c r="M78" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N78" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O78" s="9" t="s">
+      <c r="O78" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P78" s="9" t="s">
+      <c r="P78" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9" t="s">
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="U78" s="9" t="s">
+      <c r="U78" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="V78" s="9" t="s">
+      <c r="V78" s="10" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5149,39 +5155,39 @@
       <c r="L79" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="M79" s="9" t="s">
+      <c r="M79" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="N79" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O79" s="9" t="s">
+      <c r="O79" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P79" s="9" t="s">
+      <c r="P79" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9" t="s">
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9" t="s">
+      <c r="S79" s="10"/>
+      <c r="T79" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="U79" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="V79" s="9"/>
+      <c r="U79" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V79" s="10"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -5190,11 +5196,11 @@
       <c r="E80" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F80" s="5"/>
+      <c r="F80" s="2"/>
       <c r="G80" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H80" s="5"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="6" t="s">
         <v>159</v>
       </c>
@@ -5207,17 +5213,17 @@
       <c r="L80" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
-      <c r="Q80" s="5"/>
+      <c r="Q80" s="2"/>
       <c r="R80" s="6"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="2"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6" t="s">
         <v>166</v>
@@ -5228,25 +5234,25 @@
       <c r="A81" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10" t="s">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M81" s="5"/>
@@ -5264,25 +5270,25 @@
       <c r="A82" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="K82" s="10"/>
-      <c r="L82" s="11" t="s">
+      <c r="K82" s="12"/>
+      <c r="L82" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M82" s="5"/>
@@ -5300,29 +5306,29 @@
       <c r="A83" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10" t="s">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10" t="s">
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K83" s="10"/>
-      <c r="L83" s="11" t="s">
+      <c r="K83" s="12"/>
+      <c r="L83" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M83" s="5"/>
@@ -5340,23 +5346,23 @@
       <c r="A84" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10" t="s">
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="K84" s="10"/>
-      <c r="L84" s="11" t="s">
+      <c r="K84" s="12"/>
+      <c r="L84" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M84" s="5"/>
@@ -5374,25 +5380,25 @@
       <c r="A85" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10" t="s">
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="11" t="s">
+      <c r="K85" s="12"/>
+      <c r="L85" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M85" s="5"/>
@@ -5410,31 +5416,31 @@
       <c r="A86" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10" t="s">
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="L86" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M86" s="5"/>
@@ -5452,31 +5458,31 @@
       <c r="A87" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10" t="s">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="K87" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L87" s="11" t="s">
+      <c r="L87" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M87" s="5"/>
@@ -5494,31 +5500,31 @@
       <c r="A88" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10" t="s">
+      <c r="F88" s="12"/>
+      <c r="G88" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10" t="s">
+      <c r="H88" s="12"/>
+      <c r="I88" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J88" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="K88" s="10"/>
-      <c r="L88" s="11" t="s">
+      <c r="J88" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K88" s="12"/>
+      <c r="L88" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M88" s="5"/>
@@ -5533,46 +5539,46 @@
       <c r="V88" s="5"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D89" s="6"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5" t="s">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K89" s="5"/>
+      <c r="K89" s="2"/>
       <c r="L89" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="M89" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N89" s="5" t="s">
+      <c r="N89" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5" t="s">
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V89" s="5"/>
+      <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -5684,31 +5690,31 @@
       <c r="A92" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10" t="s">
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="13" t="s">
         <v>212</v>
       </c>
       <c r="M92" s="5"/>
@@ -5747,7 +5753,7 @@
         <v>207</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -5997,7 +6003,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N98" s="2"/>
